--- a/medicine/Sexualité et sexologie/Riaumont/Riaumont.xlsx
+++ b/medicine/Sexualité et sexologie/Riaumont/Riaumont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Riaumont est une institution religieuse située sur la colline de Riaumont, à Liévin, dans le département du Pas-de-Calais en France.
@@ -515,17 +527,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Historique
-L'ordre a été fondé sur la colline de Riaumont par Albert Revet en 1958[1]. L'ordre religieux est géré par des oblats bénédictins. Ils se présentent comme des catholiques traditionalistes avec une pédagogie scoute[2]. À la mort d'Albert Revet en 1986 la direction est assurée par Jean-Paul Argouarc'h jusqu'en 2003 où il est remplacé par Alain Hocquemiller[3]. Ce dernier quitte Riaumont en 2017 après son interpellation pour la détention d'images pédopornographiques[4], Christophe Gapais lui succède[3].
-En 1971, les statuts sont approuvés par dom Jean Roy, abbé de l'abbaye Notre-Dame de Fontgombault et Jean Rupp, évêque de Monaco, qui fut prieur général de la première fondation de Jacques Sevin, l'ordre de la Sainte Croix de Jérusalem[5].
-L'œuvre reçoit le soutien d'écrivains comme Gilbert Renault (de son nom de plume « colonel Rémy ») en 1961[6] ; Serge Dalens et Jean-Louis Foncine, auteurs de la collection Signe de Piste, Pierre Joubert, le dessinateur scout[réf. nécessaire].
-En 1981, Gérard-Maurice-Eugène Huyghe, évêque d'Arras prend la décision de ne plus reconnaitre l'institution religieuse à la suite d'une visite ordonnée par le Vatican en 1980. Une des origines de la sanction est l'envoi par Riaumont, de Philippe Peignot à Écône principal séminaire de la Fraternité sacerdotale Saint-Pie-X[7].
-L'ordre religieux de droit pontifical se rattache au motu proprio Ecclesia Dei de 1988, et célèbre la liturgie selon la forme tridentine du rite romain. L’institut est donc sous l'autorité de la commission pontificale Ecclesia Dei, un dicastère de la curie romaine qui supervise les communautés traditionalistes restées fidèles à Rome[8].
-Vêture
-La bure et le scapulaire sont repris des bénédictins. L'habit de cérémonie, une cape blanche marquée d'une croix potencée rouge, se réfère au scoutisme et aux ordres militaires religieux. Le symbole principal en est la croix potencée, insigne des scouts de France qui tire son origine de la croix du royaume de Jérusalem[réf. nécessaire].
-Lieux de culte
-L'Institut dispose de sa propre chapelle dans l'enceinte du village ; ses offices quotidiens sont ouverts au public[9].
-En 2003, Jean-Paul Jaeger, évêque d'Arras, bénit la première pierre d'une nouvelle église en construction dédiée à saint Jean-Baptiste[10].
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre a été fondé sur la colline de Riaumont par Albert Revet en 1958. L'ordre religieux est géré par des oblats bénédictins. Ils se présentent comme des catholiques traditionalistes avec une pédagogie scoute. À la mort d'Albert Revet en 1986 la direction est assurée par Jean-Paul Argouarc'h jusqu'en 2003 où il est remplacé par Alain Hocquemiller. Ce dernier quitte Riaumont en 2017 après son interpellation pour la détention d'images pédopornographiques, Christophe Gapais lui succède.
+En 1971, les statuts sont approuvés par dom Jean Roy, abbé de l'abbaye Notre-Dame de Fontgombault et Jean Rupp, évêque de Monaco, qui fut prieur général de la première fondation de Jacques Sevin, l'ordre de la Sainte Croix de Jérusalem.
+L'œuvre reçoit le soutien d'écrivains comme Gilbert Renault (de son nom de plume « colonel Rémy ») en 1961 ; Serge Dalens et Jean-Louis Foncine, auteurs de la collection Signe de Piste, Pierre Joubert, le dessinateur scout[réf. nécessaire].
+En 1981, Gérard-Maurice-Eugène Huyghe, évêque d'Arras prend la décision de ne plus reconnaitre l'institution religieuse à la suite d'une visite ordonnée par le Vatican en 1980. Une des origines de la sanction est l'envoi par Riaumont, de Philippe Peignot à Écône principal séminaire de la Fraternité sacerdotale Saint-Pie-X.
+L'ordre religieux de droit pontifical se rattache au motu proprio Ecclesia Dei de 1988, et célèbre la liturgie selon la forme tridentine du rite romain. L’institut est donc sous l'autorité de la commission pontificale Ecclesia Dei, un dicastère de la curie romaine qui supervise les communautés traditionalistes restées fidèles à Rome.
 </t>
         </is>
       </c>
@@ -551,18 +563,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Le village d'enfants</t>
+          <t>Institut Sainte-Croix de Riaumont</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Historique
-En 1958, Albert Revet achète un terrain dans le bois de Riaumont à Liévin. Le village d'enfants est fondé officiellement en 1960, il accueille exclusivement des garçons[11]. Riaumont de 1960 au début des années 1980 est un foyer d'accueil de la DDASS (ASE) qui y confie des enfants placés sous sa tutelle. Construit pour les jeunes à la demande de la DDASS et des juges du Pas-de-Calais[réf. nécessaire], le foyer reçoit des enfants en difficulté. L'établissement devient un foyer d'accueil de la DDASS qui y confie des enfants placés sous sa tutelle. L'État finance la construction et l'entretien de plusieurs bâtiments, ainsi que le salaire des éducateurs, mais ne renouvelle que des agréments provisoires.
-En 1979, un signalement de maltraitances sur enfant est effectué, la direction départementale des Affaires sanitaires et sociales cessent les placements d'enfants en 1982. Riaumont perd son agrément et les financements de l’État. En 1998, Riaumont engage un procès contre l’État et gagne, mais les services sociaux ne lui confieront pas d'enfants pour autant[12].
-L'école hors contrat Saint Jean de Bosco créée en 1990, était un collège technique comprenant un internat avec quatre filières de CAP (paysagisme, menuiserie, maçonnerie et taille de pierre) reconnues par l'Éducation nationale[réf. nécessaire] qui y fait passer certains examens en fin d'année. Le bénéfice de la taxe d’apprentissage, obtenu par l'Association Notre-Dame de Riaumont en 2013, lui est retiré en 2015, puis rendu en 2016[réf. nécessaire]. Un village de Noël permet au public de visiter l'école en 2013[13].
-Au début des années 2000, Régis Spinoza est moine éducateur auprès des garçons du foyer[14].
-À la suite de la mise en examen pour violence sur mineur de plusieurs éducateurs en janvier 2019, l'école Saint Jean de Bosco est supprimée du répertoire académique et depuis n’accueille plus d’élèves. En 2023, la cour administrative d'appel de Douai déboute l’établissement de son recours[15],[16].
-En novembre 2022, le quotidien La Croix  signale deux nouvelles plaintes pour « violences sexuelles ». En novembre 2021, Bruno Raout, ancien pensionnaire de l’internat met en cause Philippe Peignot[N 1] un encadrant de Riaumont. De même, en mai 2022, Djamal Fekrache, ancien pensionnaire dans les années 1960, met en cause le fondateur de Riaumont Albert Revet. Les procédures n'aboutiront pas car les faits sont prescrits et Albert Revet est mort en 1986[20].
+          <t>Vêture</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bure et le scapulaire sont repris des bénédictins. L'habit de cérémonie, une cape blanche marquée d'une croix potencée rouge, se réfère au scoutisme et aux ordres militaires religieux. Le symbole principal en est la croix potencée, insigne des scouts de France qui tire son origine de la croix du royaume de Jérusalem[réf. nécessaire].
 </t>
         </is>
       </c>
@@ -588,13 +600,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Association des scouts et guides de Riaumont</t>
+          <t>Institut Sainte-Croix de Riaumont</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'association des scouts et guides de Riaumont est fondée en 1960 par le père Albert Revet. La structure s'est déclarée comme association en mars 1999. Ses statuts indiquent dans son article 2, qu'elle  « a pour double but la transmission et la défense du scoutisme catholique ». De 2001 à 2019, les scouts et guides de Riaumont sont affiliés aux Éclaireurs neutres de France (ENF), mouvement de scoutisme fondé en 1947, reconnu comme Accueil de Scoutisme et agréé par le ministère de la Jeunesse et des Sports dont bénéficie indirectement l'association de Riaumont. En 2016, l'association des scouts et guides de Riaumont comporte 500 adhérents, qui se dénomment spahis. Ils se répartissent en trois groupes installés à Riaumont, à Paris et à l’abbaye Notre-Dame de Fontgombault[21],[22]. Par ailleurs le site de Riaumont accueille un  Mémorial national des scouts morts pour la France [12],[23].
-Pour Vincent Blin, vicaire général du diocèse d'Arras et ancien curé de Liévin, les encadrants de l'association des scouts de Riaumont « ont une vision du scoutisme qu'ils veulent presque militaire, qui n'est pas la nôtre »[24].
+          <t>Lieux de culte</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Institut dispose de sa propre chapelle dans l'enceinte du village ; ses offices quotidiens sont ouverts au public.
+En 2003, Jean-Paul Jaeger, évêque d'Arras, bénit la première pierre d'une nouvelle église en construction dédiée à saint Jean-Baptiste.
 </t>
         </is>
       </c>
@@ -620,22 +638,208 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Le village d'enfants</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1958, Albert Revet achète un terrain dans le bois de Riaumont à Liévin. Le village d'enfants est fondé officiellement en 1960, il accueille exclusivement des garçons. Riaumont de 1960 au début des années 1980 est un foyer d'accueil de la DDASS (ASE) qui y confie des enfants placés sous sa tutelle. Construit pour les jeunes à la demande de la DDASS et des juges du Pas-de-Calais[réf. nécessaire], le foyer reçoit des enfants en difficulté. L'établissement devient un foyer d'accueil de la DDASS qui y confie des enfants placés sous sa tutelle. L'État finance la construction et l'entretien de plusieurs bâtiments, ainsi que le salaire des éducateurs, mais ne renouvelle que des agréments provisoires.
+En 1979, un signalement de maltraitances sur enfant est effectué, la direction départementale des Affaires sanitaires et sociales cessent les placements d'enfants en 1982. Riaumont perd son agrément et les financements de l’État. En 1998, Riaumont engage un procès contre l’État et gagne, mais les services sociaux ne lui confieront pas d'enfants pour autant.
+L'école hors contrat Saint Jean de Bosco créée en 1990, était un collège technique comprenant un internat avec quatre filières de CAP (paysagisme, menuiserie, maçonnerie et taille de pierre) reconnues par l'Éducation nationale[réf. nécessaire] qui y fait passer certains examens en fin d'année. Le bénéfice de la taxe d’apprentissage, obtenu par l'Association Notre-Dame de Riaumont en 2013, lui est retiré en 2015, puis rendu en 2016[réf. nécessaire]. Un village de Noël permet au public de visiter l'école en 2013.
+Au début des années 2000, Régis Spinoza est moine éducateur auprès des garçons du foyer.
+À la suite de la mise en examen pour violence sur mineur de plusieurs éducateurs en janvier 2019, l'école Saint Jean de Bosco est supprimée du répertoire académique et depuis n’accueille plus d’élèves. En 2023, la cour administrative d'appel de Douai déboute l’établissement de son recours,.
+En novembre 2022, le quotidien La Croix  signale deux nouvelles plaintes pour « violences sexuelles ». En novembre 2021, Bruno Raout, ancien pensionnaire de l’internat met en cause Philippe Peignot[N 1] un encadrant de Riaumont. De même, en mai 2022, Djamal Fekrache, ancien pensionnaire dans les années 1960, met en cause le fondateur de Riaumont Albert Revet. Les procédures n'aboutiront pas car les faits sont prescrits et Albert Revet est mort en 1986.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Riaumont</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Riaumont</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Association des scouts et guides de Riaumont</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association des scouts et guides de Riaumont est fondée en 1960 par le père Albert Revet. La structure s'est déclarée comme association en mars 1999. Ses statuts indiquent dans son article 2, qu'elle  « a pour double but la transmission et la défense du scoutisme catholique ». De 2001 à 2019, les scouts et guides de Riaumont sont affiliés aux Éclaireurs neutres de France (ENF), mouvement de scoutisme fondé en 1947, reconnu comme Accueil de Scoutisme et agréé par le ministère de la Jeunesse et des Sports dont bénéficie indirectement l'association de Riaumont. En 2016, l'association des scouts et guides de Riaumont comporte 500 adhérents, qui se dénomment spahis. Ils se répartissent en trois groupes installés à Riaumont, à Paris et à l’abbaye Notre-Dame de Fontgombault,. Par ailleurs le site de Riaumont accueille un  Mémorial national des scouts morts pour la France ,.
+Pour Vincent Blin, vicaire général du diocèse d'Arras et ancien curé de Liévin, les encadrants de l'association des scouts de Riaumont « ont une vision du scoutisme qu'ils veulent presque militaire, qui n'est pas la nôtre ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Riaumont</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Riaumont</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Affaires judiciaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enquête sur un suicide d'enfant en 2001
-En juin 2001, le suicide d'un adolescent dans les murs de l'école donne lieu à une inspection générale de l'établissement. L'enquête sur la responsabilité de l'établissement se conclut par un non-lieu[25],[26]
-Anciennes cloches de Notre-Dame de Paris
-À partir de 2012, l'Institut de Sainte-Croix de Riaumont s'oppose juridiquement à l'archidiocèse de Paris pour détenir quatre anciennes cloches de la cathédrale Notre-Dame de Paris, propriété de l'État, qui seront remplacées par des nouvelles en 2013 à l'occasion du 850e anniversaire de la cathédrale. En 2014, l'institution religieuse est déboutée par le tribunal et fait appel. En 2016, à l'issue de 4 années de procédure, l'institut religieux demande uniquement à être l'affectataire de deux d'entre elles. Toutefois la partie adverse fait valoir l'irrecevabilité de cette nouvelle demande[27],[28].
-Mises en examen pour maltraitances, agressions sexuelles ou viols
-En 2013, une enquête judiciaire commence à la suite de la plainte d'un ancien pensionnaire de l'école Jean Bosco avec des allégations de violences physiques et sexuelles[3].
-Au printemps 2017, la police interpelle Alain Hocquemiller le prieur de Riaumont à l'époque pour détention d'images pédo-pornographiques. Placé sous contrôle judiciaire, il quitte Riaumont, les religieux le démettent de ses fonctions mais sans communiquer sur les raisons de ce départ. L'affaire est rendue publique un an plus tard par les journalistes du Point[4]. En effet, en mai 2018, les journalistes Mégane Chiecchi et Marc Leplongeon de ce média mentionnent, qu'Alain H. est soupçonné de pédophilie et d'avoir consulté des images à caractère pédopornographique[29],[30],[31]. Le quotidien Libération mentionne qu'ultèrieurement un deuxième prêtre, le père Nicolas, est aussi exclu de la communauté religieuse, pour consultation de sites pornographiques[4].
-En mai 2018, l'hebdomadaire Le Point[30] annonce que plus de deux cents anciens du village d'enfants de Riaumont, sont en cours d'audition pour des soupçons de maltraitance et affaires sexuelles[8],[4]. Au 18 février 2022, onze personnes sont mises en examen par le parquet de Béthune, pour des allégations de « viols, agressions sexuelles ou maltraitances », sur des enfants de moins de 15 ans[32],[20].
-Selon Le Canard enchaîné, Philippe Vidovini, grand-père d'Émile, un enfant de 2 ans disparu en juillet 2023, est cité comme « témoin assisté » dans l'affaire judiciaire de Riaumont[33],[34].
-Livre-enquête
-En mars 2022, la journaliste et écrivaine Ixchel Delaporte[N 2] publie Les enfants martyrs de Riaumont : enquête sur un pensionnat intégriste, un livre-enquête sur l'histoire du foyer de Riaumont depuis 1960. L'ouvrage fait suite à sa rencontre avec Bruno Raout, un ancien pensionnaire de Riaumont, et à son précédent livre sur Vincent Lambert, tous les deux abusés par le même encadrant, Philippe Peignot[37],[38].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Enquête sur un suicide d'enfant en 2001</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juin 2001, le suicide d'un adolescent dans les murs de l'école donne lieu à une inspection générale de l'établissement. L'enquête sur la responsabilité de l'établissement se conclut par un non-lieu,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Riaumont</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Riaumont</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Affaires judiciaires</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Anciennes cloches de Notre-Dame de Paris</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À partir de 2012, l'Institut de Sainte-Croix de Riaumont s'oppose juridiquement à l'archidiocèse de Paris pour détenir quatre anciennes cloches de la cathédrale Notre-Dame de Paris, propriété de l'État, qui seront remplacées par des nouvelles en 2013 à l'occasion du 850e anniversaire de la cathédrale. En 2014, l'institution religieuse est déboutée par le tribunal et fait appel. En 2016, à l'issue de 4 années de procédure, l'institut religieux demande uniquement à être l'affectataire de deux d'entre elles. Toutefois la partie adverse fait valoir l'irrecevabilité de cette nouvelle demande,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Riaumont</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Riaumont</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Affaires judiciaires</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mises en examen pour maltraitances, agressions sexuelles ou viols</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2013, une enquête judiciaire commence à la suite de la plainte d'un ancien pensionnaire de l'école Jean Bosco avec des allégations de violences physiques et sexuelles.
+Au printemps 2017, la police interpelle Alain Hocquemiller le prieur de Riaumont à l'époque pour détention d'images pédo-pornographiques. Placé sous contrôle judiciaire, il quitte Riaumont, les religieux le démettent de ses fonctions mais sans communiquer sur les raisons de ce départ. L'affaire est rendue publique un an plus tard par les journalistes du Point. En effet, en mai 2018, les journalistes Mégane Chiecchi et Marc Leplongeon de ce média mentionnent, qu'Alain H. est soupçonné de pédophilie et d'avoir consulté des images à caractère pédopornographique. Le quotidien Libération mentionne qu'ultèrieurement un deuxième prêtre, le père Nicolas, est aussi exclu de la communauté religieuse, pour consultation de sites pornographiques.
+En mai 2018, l'hebdomadaire Le Point annonce que plus de deux cents anciens du village d'enfants de Riaumont, sont en cours d'audition pour des soupçons de maltraitance et affaires sexuelles,. Au 18 février 2022, onze personnes sont mises en examen par le parquet de Béthune, pour des allégations de « viols, agressions sexuelles ou maltraitances », sur des enfants de moins de 15 ans,.
+Selon Le Canard enchaîné, Philippe Vidovini, grand-père d'Émile, un enfant de 2 ans disparu en juillet 2023, est cité comme « témoin assisté » dans l'affaire judiciaire de Riaumont,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Riaumont</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Riaumont</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Affaires judiciaires</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Livre-enquête</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mars 2022, la journaliste et écrivaine Ixchel Delaporte[N 2] publie Les enfants martyrs de Riaumont : enquête sur un pensionnat intégriste, un livre-enquête sur l'histoire du foyer de Riaumont depuis 1960. L'ouvrage fait suite à sa rencontre avec Bruno Raout, un ancien pensionnaire de Riaumont, et à son précédent livre sur Vincent Lambert, tous les deux abusés par le même encadrant, Philippe Peignot,.
 </t>
         </is>
       </c>
